--- a/scripts/py/list.xlsx
+++ b/scripts/py/list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://utpedu-my.sharepoint.com/personal/oooglue_utp_edu_co/Documents/Scripts/Proyectos/Trip/scripts/py/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{9F30CDD0-5998-47B7-A2C5-BC5A8EACE45C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{777FDB36-356A-415A-8E54-7A791FFAF345}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="8_{9F30CDD0-5998-47B7-A2C5-BC5A8EACE45C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CBE3D72C-6A63-4502-9BEA-07BB0CA91075}"/>
   <bookViews>
     <workbookView xWindow="6135" yWindow="4320" windowWidth="21600" windowHeight="11160" xr2:uid="{68F8A698-0490-48F7-91C9-16B6FC2BD4C3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="51">
   <si>
     <t>1. Song 2</t>
   </si>
@@ -183,14 +183,54 @@
   </si>
   <si>
     <t>B</t>
+  </si>
+  <si>
+    <t>Woo-hoo&lt;br&gt;
+Woo-hoo&lt;br&gt;
+Woo-hoo&lt;br&gt;
+Woo-hoo&lt;br&gt;
+I got my head checked&lt;br&gt;
+By a jumbo jet&lt;br&gt;
+It wasn't easy&lt;br&gt;
+But nothing is&lt;br&gt;
+No&lt;br&gt;
+When I feel heavy metal&lt;br&gt;
+(Woo-hoo) And I'm pins and I'm needles&lt;br&gt;
+(Woo-hoo) Well, I lie and I'm easy&lt;br&gt;
+All of the time but I'm never sure why I need you&lt;br&gt;
+Pleased to meet you&lt;br&gt;
+I got my head done&lt;br&gt;
+When I was young&lt;br&gt;
+It's not my problem&lt;br&gt;
+It's not my problem&lt;br&gt;
+When I feel heavy metal&lt;br&gt;
+(Woo-hoo) And I'm pins and I'm needles&lt;br&gt;
+(Woo-hoo) Well, I lie and I'm easy&lt;br&gt;
+All of the time but I'm never sure why I need you&lt;br&gt;
+Pleased to meet you&lt;br&gt;
+Yeah, yeah&lt;br&gt;
+Yeah, yeah&lt;br&gt;
+Yeah, yeah&lt;br&gt;
+Oh, yeah&lt;br&gt;'</t>
+  </si>
+  <si>
+    <t>Lyric</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -218,9 +258,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -555,10 +598,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57EB17D2-6DC1-4CE4-9CDC-D03F934B4915}">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="F30" sqref="F17:F30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -566,7 +609,7 @@
     <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -585,8 +628,11 @@
       <c r="F1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -605,8 +651,12 @@
       <c r="F2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -626,7 +676,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -646,7 +696,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>42</v>
       </c>
@@ -666,7 +716,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -686,7 +736,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -706,7 +756,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -726,7 +776,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -746,7 +796,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -766,7 +816,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -786,7 +836,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>44</v>
       </c>
@@ -803,7 +853,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -823,7 +873,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -843,7 +893,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -863,7 +913,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -899,7 +949,7 @@
       <c r="E17">
         <v>0</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" t="s">
         <v>48</v>
       </c>
     </row>
@@ -919,7 +969,7 @@
       <c r="E18">
         <v>0</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" t="s">
         <v>48</v>
       </c>
     </row>
@@ -939,7 +989,7 @@
       <c r="E19">
         <v>0</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" t="s">
         <v>48</v>
       </c>
     </row>
@@ -959,7 +1009,7 @@
       <c r="E20">
         <v>0</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" t="s">
         <v>48</v>
       </c>
     </row>
@@ -979,7 +1029,7 @@
       <c r="E21">
         <v>0</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F21" t="s">
         <v>48</v>
       </c>
     </row>
@@ -999,7 +1049,7 @@
       <c r="E22">
         <v>0</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F22" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1019,7 +1069,7 @@
       <c r="E23">
         <v>1</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F23" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1039,7 +1089,7 @@
       <c r="E24">
         <v>0</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F24" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1059,7 +1109,7 @@
       <c r="E25">
         <v>0</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="F25" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1079,7 +1129,7 @@
       <c r="E26">
         <v>0</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="F26" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1099,7 +1149,7 @@
       <c r="E27">
         <v>0</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="F27" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1119,7 +1169,7 @@
       <c r="E28">
         <v>0</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="F28" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1139,7 +1189,7 @@
       <c r="E29">
         <v>0</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="F29" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1159,7 +1209,7 @@
       <c r="E30">
         <v>0</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="F30" t="s">
         <v>48</v>
       </c>
     </row>

--- a/scripts/py/list.xlsx
+++ b/scripts/py/list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://utpedu-my.sharepoint.com/personal/oooglue_utp_edu_co/Documents/Scripts/Proyectos/Trip/scripts/py/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="8_{9F30CDD0-5998-47B7-A2C5-BC5A8EACE45C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CBE3D72C-6A63-4502-9BEA-07BB0CA91075}"/>
+  <xr:revisionPtr revIDLastSave="73" documentId="8_{9F30CDD0-5998-47B7-A2C5-BC5A8EACE45C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F19ACCF0-64E6-45FA-8132-DD578491F399}"/>
   <bookViews>
-    <workbookView xWindow="6135" yWindow="4320" windowWidth="21600" windowHeight="11160" xr2:uid="{68F8A698-0490-48F7-91C9-16B6FC2BD4C3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{68F8A698-0490-48F7-91C9-16B6FC2BD4C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="79">
   <si>
     <t>1. Song 2</t>
   </si>
@@ -183,6 +183,9 @@
   </si>
   <si>
     <t>B</t>
+  </si>
+  <si>
+    <t>Lyric</t>
   </si>
   <si>
     <t>Woo-hoo&lt;br&gt;
@@ -211,10 +214,1156 @@
 Yeah, yeah&lt;br&gt;
 Yeah, yeah&lt;br&gt;
 Yeah, yeah&lt;br&gt;
-Oh, yeah&lt;br&gt;'</t>
-  </si>
-  <si>
-    <t>Lyric</t>
+Oh, yeah&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Presentamos la banda y la canción Break the chains</t>
+  </si>
+  <si>
+    <t>INTRO &lt;br&gt;
+&lt;br&gt;
+You thought you knew my name&lt;br&gt;
+But I couldn't feel the same&lt;br&gt;
+I can do it on my own&lt;br&gt;
+And make you feel again&lt;br&gt;
+&lt;br&gt;
+CHORUS&lt;br&gt;
+&lt;br&gt;
+blame shame&lt;br&gt;
+the game is back behind your eyes&lt;br&gt;
+break the chains&lt;br&gt;
+start the fire&lt;br&gt;
+&lt;br&gt;
+I'm breaking free, Leaving the past&lt;br&gt;
+just feel the dream and the Desire  &lt;br&gt;
+feeling high&lt;br&gt;
+say good bye&lt;br&gt;
+&lt;br&gt;
+I feel your skin&lt;br&gt;
+your getting wild&lt;br&gt;
+Unleashing passions &lt;br&gt;
+the verve inside&lt;br&gt;
+your heart is fast&lt;br&gt;
+we'll dance slow&lt;br&gt;
+Through the darkness&lt;br&gt;
+the fury glows&lt;br&gt;
+&lt;br&gt;
+CHORUS (repeat)&lt;br&gt;
+blame shame&lt;br&gt;
+the game is back behind your eyes&lt;br&gt;
+break the chains&lt;br&gt;
+start the fire&lt;br&gt;
+&lt;br&gt;
+I'm breaking free, Leaving the past&lt;br&gt;
+just feel the dream and the Desire&lt;br&gt;
+feeling high&lt;br&gt;
+say good bye&lt;br&gt;
+&lt;br&gt;
+&lt;br&gt;
+BRIDGE&lt;br&gt;
+and I see that&lt;br&gt;
+&lt;br&gt;
+fear (fir) is growing up&lt;br&gt;
+raining and blues inside  &lt;br&gt;
+cold blood just jump away&lt;br&gt;
+scream loud and leave the pain&lt;br&gt;
+&lt;br&gt;
+BRIDGE&lt;br&gt;
+&lt;br&gt;
+your lips are bullets in my brain&lt;br&gt;
+your lips are bullets in my brain&lt;br&gt;
+&lt;br&gt;
+SOLO&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Two jumps in a week&lt;br&gt;
+I bet you think that's pretty clever, don't you, boy?&lt;br&gt;
+Flying on your motorcycle&lt;br&gt;
+Watching all the ground beneath you drop&lt;br&gt;
+You'd kill yourself for recognition&lt;br&gt;
+Kill yourself to never, ever stop&lt;br&gt;
+You broke another mirror&lt;br&gt;
+You're turning into something you are not&lt;br&gt;
+&lt;br&gt;
+Don't leave me high&lt;br&gt;
+Don't leave me dry&lt;br&gt;
+Don't leave me high&lt;br&gt;
+Don't leave me dry&lt;br&gt;
+Drying up in conversation&lt;br&gt;
+You will be the one who cannot talk&lt;br&gt;
+All your insides fall to pieces&lt;br&gt;
+You just sit there wishing you could still make love&lt;br&gt;
+They're the ones who'll hate you&lt;br&gt;
+When you think you've got the world all sussed out&lt;br&gt;
+They're the ones who'll spit at you&lt;br&gt;
+You will be the one screaming out&lt;br&gt;
+&lt;br&gt;
+Don't leave me high&lt;br&gt;
+Don't leave me dry&lt;br&gt;
+Don't leave me high&lt;br&gt;
+Don't leave me dry&lt;br&gt;
+Oh, it's the best thing that you've ever had&lt;br&gt;
+The best thing that you've ever, ever had&lt;br&gt;
+It's the best thing that you've ever had&lt;br&gt;
+The best thing you have had is gone away&lt;br&gt;
+&lt;br&gt;
+So don't leave me high&lt;br&gt;
+Don't leave me dry&lt;br&gt;
+Don't leave me high&lt;br&gt;
+Don't leave me dry&lt;br&gt;
+Don't leave me high&lt;br&gt;
+Don't leave me high&lt;br&gt;
+Don't leave me dry&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Getting born in the state of Mississippi&lt;br&gt;
+Papa was a copper, and her mama was a hippy&lt;br&gt;
+In Alabama she would swing a hammer&lt;br&gt;
+Price you got to pay when you break the panorama&lt;br&gt;
+&lt;br&gt;
+She never knew that there was anything more than poor&lt;br&gt;
+What in the world does your company take me for?&lt;br&gt;
+&lt;br&gt;
+Black bandanna, sweet Louisiana&lt;br&gt;
+Robbing on a bank in the state of Indiana&lt;br&gt;
+She's a runner Rebel, and a stunner&lt;br&gt;
+On her merry way saying baby, watcha gonna?&lt;br&gt;
+&lt;br&gt;
+Looking down the barrel of a hot metal forty-five&lt;br&gt;
+Just another way to survive&lt;br&gt;
+&lt;br&gt;
+California, rest in peace&lt;br&gt;
+Simultaneous release&lt;br&gt;
+California, show your teeth&lt;br&gt;
+She's my priestess&lt;br&gt;
+I'm your priest&lt;br&gt;
+Yeah, yeah, yeah&lt;br&gt;
+&lt;br&gt;
+She's a lover, baby, and a fighter&lt;br&gt;
+Should've seen it coming when I got a little brighter&lt;br&gt;
+With a name like Dani California&lt;br&gt;
+Day was gonna come when I was gonna mourn ya&lt;br&gt;
+&lt;br&gt;
+A little loaded, she was stealing another breath&lt;br&gt;
+I love my baby to death&lt;br&gt;
+&lt;br&gt;
+California, rest in peace&lt;br&gt;
+Simultaneous release&lt;br&gt;
+California, show your teeth&lt;br&gt;
+She's my priestess&lt;br&gt;
+I'm your priest&lt;br&gt;
+Yeah, yeah, yeah&lt;br&gt;
+&lt;br&gt;
+Who knew the other side of you?&lt;br&gt;
+Who knew that others died to prove?&lt;br&gt;
+Too true to say goodbye to you&lt;br&gt;
+Too true to say, say, say&lt;br&gt;
+&lt;br&gt;
+Pushed the fader, gifted animator&lt;br&gt;
+One for the now, and eleven for the later&lt;br&gt;
+Never made it up to Minnesota&lt;br&gt;
+North Dakota man Wasn't gunnin' for the quota&lt;br&gt;
+&lt;br&gt;
+Down in the Badlands she was saving the best for last&lt;br&gt;
+It only hurts when I laugh&lt;br&gt;
+Gone too fast&lt;br&gt;
+&lt;br&gt;
+California, rest in peace&lt;br&gt;
+Simultaneous release&lt;br&gt;
+California, show your teeth&lt;br&gt;
+She's my priestess&lt;br&gt;
+I'm your priest&lt;br&gt;
+Yeah, yeah, yeah&lt;br&gt;
+&lt;br&gt;
+California, rest in peace&lt;br&gt;
+Simultaneous release&lt;br&gt;
+California, show your teeth&lt;br&gt;
+She's my priestess&lt;br&gt;
+I'm your priest&lt;br&gt;
+Yeah, yeah, yeah&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Scar tissue that I wish you saw&lt;br&gt;
+Sarcastic mister know-it-all&lt;br&gt;
+Close your eyes and I'll kiss you, 'cause&lt;br&gt;
+With the birds I'll share&lt;br&gt;
+&lt;br&gt;
+With the birds I'll share this lonely viewin'&lt;br&gt;
+With the birds I'll share this lonely viewin'&lt;br&gt;
+&lt;br&gt;
+Push me up against the wall&lt;br&gt;
+Young Kentucky girl in a push-up bra&lt;br&gt;
+Fallin' all over myself&lt;br&gt;
+To lick your heart and taste your health 'cause&lt;br&gt;
+&lt;br&gt;
+With the birds I'll share this lonely viewin'&lt;br&gt;
+With the birds I'll share this lonely viewin'&lt;br&gt;
+With the birds I'll share this lonely view&lt;br&gt;
+&lt;br&gt;
+Blood loss in a bathroom stall&lt;br&gt;
+A southern girl with a scarlet drawl&lt;br&gt;
+I wave goodbye to ma and pa&lt;br&gt;
+'Cause with the birds I'll share&lt;br&gt;
+&lt;br&gt;
+With the birds I'll share this lonely viewin'&lt;br&gt;
+With the birds I'll share this lonely viewin'&lt;br&gt;
+&lt;br&gt;
+Soft spoken with a broken jaw&lt;br&gt;
+Step outside but not to brawl and&lt;br&gt;
+Autumn's sweet, we call it fall&lt;br&gt;
+I'll make it to the moon if I have to crawl and&lt;br&gt;
+&lt;br&gt;
+With the birds I'll share this lonely viewin'&lt;br&gt;
+With the birds I'll share this lonely viewin'&lt;br&gt;
+With the birds I'll share this lonely view&lt;br&gt;
+&lt;br&gt;
+Scar tissue that I wish you saw&lt;br&gt;
+Sarcastic mister know-it-all&lt;br&gt;
+Close your eyes and I'll kiss you, 'cause&lt;br&gt;
+With the birds I'll share&lt;br&gt;
+&lt;br&gt;
+With the birds I'll share this lonely viewin'&lt;br&gt;
+With the birds I'll share this lonely viewin'&lt;br&gt;
+With the birds I'll share this lonely view&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Walking down this lonely avenue,  &lt;br&gt;
+I find myself speaking tales of you.   &lt;br&gt;
+In every game, every laugh we knew,  &lt;br&gt;
+A friendship so deep, in the skies so blue.&lt;br&gt;
+&lt;br&gt;
+miss you in the stories we wrote,  &lt;br&gt;
+In the jokes we shared, in the notes we'd quote.  &lt;br&gt;
+A friendship so rare, beyond compare.&lt;br&gt;
+miss your light&lt;br&gt;
+in every sing in my life&lt;br&gt;
+old times dancing&lt;br&gt;
+bonds broken in the afterglow.&lt;br&gt;
+&lt;br&gt;
+We shared dreams in our hideaway,  &lt;br&gt;
+Lost in films, in games we’d play.  &lt;br&gt;
+Though paths have changed, in my heart you’ll stay,  &lt;br&gt;
+A beacon of joy, in the light of day.&lt;br&gt;
+&lt;br&gt;
+miss you in the stories we wrote,  &lt;br&gt;
+In the jokes we shared, in the notes we'd quote.  &lt;br&gt;
+A friendship so rare, beyond compare.&lt;br&gt;
+miss your light&lt;br&gt;
+in every sing in my life&lt;br&gt;
+old times dancing&lt;br&gt;
+bonds broken in the afterglow.&lt;br&gt;
+&lt;br&gt;
+Though you're not here, I see your smile,  &lt;br&gt;
+In the wind, in the stars, across every mile.  &lt;br&gt;
+Your spirit, a guide through every trial,  &lt;br&gt;
+With me, in every moment, every while.&lt;br&gt;
+&lt;br&gt;
+I miss you, but feel you in every cheer,  &lt;br&gt;
+In every challenge, you still feel near.  &lt;br&gt;
+Our friendship, a treasure beyond all measure,  &lt;br&gt;
+In my heart, it’s an eternal pleasure.&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Ey! We’ve earth on fire, earth on fire &lt;br&gt;
+let’s hear right&lt;br&gt;
+&lt;br&gt;
+Oh! What’s going on here, we’re out of control&lt;br&gt;
+Out of control&lt;br&gt;
+&lt;br&gt;
+The damage is done, take a look around&lt;br&gt;
+damn it’s right&lt;br&gt;
+&lt;br&gt;
+the fire spread, the rain doesn’t stop&lt;br&gt;
+the mortal chaos!&lt;br&gt;
+&lt;br&gt;
+What should we do?, or what can we do?&lt;br&gt;
+don’t stop now!&lt;br&gt;
+&lt;br&gt;
+the future comes soon there’s nothing to do&lt;br&gt;
+live this life!&lt;br&gt;
+&lt;br&gt;
+Ey! We’ve earth on fire, earth on fire &lt;br&gt;
+let’s hear right&lt;br&gt;
+Oh! What’s going on here, we’re out of control&lt;br&gt;
+Out of control&lt;br&gt;
+&lt;br&gt;
+Pollution is part of the landscapes&lt;br&gt;
+and the blue skies too!&lt;br&gt;
+&lt;br&gt;
+Nature is fading become in gray&lt;br&gt;
+this make no sense!&lt;br&gt;
+&lt;br&gt;
+Is too far to believe in future&lt;br&gt;
+well let’s see!&lt;br&gt;
+&lt;br&gt;
+You dont care your life are wested&lt;br&gt;
+and the present dies!&lt;br&gt;
+&lt;br&gt;
+I wake in the morning and i just can see&lt;br&gt;
+all the chaos that we are doing here&lt;br&gt;
+i want to believe that it will improve&lt;br&gt;
+and the tomorrow will be good&lt;br&gt;
+&lt;br&gt;
+all i have to do is change my point of view&lt;br&gt;
+and just can't stand until get better &lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Keep you in the dark&lt;br&gt;
+You know they all pretend&lt;br&gt;
+Keep you in the dark&lt;br&gt;
+And so it all began&lt;br&gt;
+&lt;br&gt;
+Send in your skeletons&lt;br&gt;
+Sing as their bones come marchin' in again&lt;br&gt;
+The need you buried deep&lt;br&gt;
+The secrets that you keep are at the ready&lt;br&gt;
+Are you ready?&lt;br&gt;
+&lt;br&gt;
+I'm finished making sense&lt;br&gt;
+Done pleading ignorance, that whole defense&lt;br&gt;
+Spinning infinity, but&lt;br&gt;
+The wheel is spinning me, it's never-ending, never-ending&lt;br&gt;
+Same old story&lt;br&gt;
+&lt;br&gt;
+What if I say I'm not like the others?&lt;br&gt;
+What if I say I'm not just another one of your plays?&lt;br&gt;
+You're the pretender&lt;br&gt;
+&lt;br&gt;
+What if I say I will never surrender?&lt;br&gt;
+What if I say I'm not like the others?&lt;br&gt;
+What if I say I'm not just another one of your plays?&lt;br&gt;
+You're the pretender&lt;br&gt;
+What if I say I will never surrender?&lt;br&gt;
+&lt;br&gt;
+In time, or so I'm told&lt;br&gt;
+I'm just another soul for sale, oh well&lt;br&gt;
+The page is out of print&lt;br&gt;
+We are not permanent, we're temporary, temporary&lt;br&gt;
+Same old story&lt;br&gt;
+&lt;br&gt;
+What if I say I'm not like the others?&lt;br&gt;
+What if I say I'm not just another one of your plays?&lt;br&gt;
+You're the pretender&lt;br&gt;
+&lt;br&gt;
+What if I say I will never surrender?&lt;br&gt;
+What if I say I'm not like the others?&lt;br&gt;
+What if I say I'm not just another one of your plays?&lt;br&gt;
+You're the pretender&lt;br&gt;
+What if I say I will never surrender? Oh&lt;br&gt;
+&lt;br&gt;
+I'm the voice inside your head you refuse to hear&lt;br&gt;
+I'm the face that you have to face, mirroring your stare&lt;br&gt;
+I'm what's left, I'm what's right, I'm the enemy&lt;br&gt;
+I'm the hand that'll take you down, bring you to your knees&lt;br&gt;
+&lt;br&gt;
+So, who are you?&lt;br&gt;
+Yeah, who are you?&lt;br&gt;
+Yeah, who are you?&lt;br&gt;
+Yeah, who are you?&lt;br&gt;
+&lt;br&gt;
+Keep you in the dark&lt;br&gt;
+You know they all pretend&lt;br&gt;
+&lt;br&gt;
+What if I say I'm not like the others?&lt;br&gt;
+What if I say I'm not just another one of your plays?&lt;br&gt;
+You're the pretender&lt;br&gt;
+&lt;br&gt;
+What if I say I will never surrender?&lt;br&gt;
+What if I say I'm not like the others?&lt;br&gt;
+What if I say I'm not just another one of your plays?&lt;br&gt;
+You're the pretender&lt;br&gt;
+What if I say I will never surrender?&lt;br&gt;
+What if I say I'm not like the others? (Keep you in the dark)&lt;br&gt;
+What if I say I'm not just another one of your plays? (You know they &lt;br&gt;all)
+You're the pretender (pretend)&lt;br&gt;
+What if I say I will never surrender?&lt;br&gt;
+What if I say I'm not like the others? (Keep you in the dark)&lt;br&gt;
+What if I say I'm not just another one of your plays? (You know they &lt;br&gt;all)
+You're the pretender (pretend)&lt;br&gt;
+What if I say I will never surrender?&lt;br&gt;
+So, who are you?&lt;br&gt;
+Yeah, who are you?&lt;br&gt;
+Yeah, who are you?&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Hello&lt;br&gt;
+I've waited here for you&lt;br&gt;
+Everlong&lt;br&gt;
+Tonight, I throw myself into&lt;br&gt;
+And out of the red&lt;br&gt;
+Out of her head, she sang&lt;br&gt;
+&lt;br&gt;
+Come down and waste away with me&lt;br&gt;
+Down with me&lt;br&gt;
+Slow, how you wanted it to be&lt;br&gt;
+I'm over my head&lt;br&gt;
+Out of her head, she sang&lt;br&gt;
+&lt;br&gt;
+And I wonder&lt;br&gt;
+When I sing along with you&lt;br&gt;
+&lt;br&gt;
+If everything could ever be this real forever&lt;br&gt;
+If anything could ever be this good again&lt;br&gt;
+The only thing I'll ever ask of you&lt;br&gt;
+You've got to promise not to stop when I say when&lt;br&gt;
+She sang&lt;br&gt;
+&lt;br&gt;
+Breathe out&lt;br&gt;
+So I can breathe you in&lt;br&gt;
+Hold you in&lt;br&gt;
+And now&lt;br&gt;
+I know you've always been&lt;br&gt;
+Out of your head&lt;br&gt;
+Out of my head, I sang&lt;br&gt;
+&lt;br&gt;
+And I wonder&lt;br&gt;
+When I sing along with you&lt;br&gt;
+&lt;br&gt;
+If everything could ever feel this real forever&lt;br&gt;
+If anything could ever be this good again&lt;br&gt;
+The only thing I'll ever ask of you&lt;br&gt;
+You've got to promise not to stop when I say when&lt;br&gt;
+She sang&lt;br&gt;
+&lt;br&gt;
+And I wonder&lt;br&gt;
+&lt;br&gt;
+If everything could ever feel this real forever&lt;br&gt;
+If anything could ever be this good again&lt;br&gt;
+The only thing I'll ever ask of you&lt;br&gt;
+You've got to promise not to stop when I say when&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>I think I'm drowning&lt;br&gt;
+Asphyxiated&lt;br&gt;
+I wanna break this spell&lt;br&gt;
+That you've created&lt;br&gt;
+&lt;br&gt;
+You're something beautiful&lt;br&gt;
+A contradiction&lt;br&gt;
+I wanna play the game&lt;br&gt;
+I want the friction&lt;br&gt;
+&lt;br&gt;
+You will be&lt;br&gt;
+The death of me&lt;br&gt;
+Yeah, you will be&lt;br&gt;
+The death of me&lt;br&gt;
+&lt;br&gt;
+Bury it&lt;br&gt;
+I won't let you bury it&lt;br&gt;
+I won't let you smother it&lt;br&gt;
+I won't let you murder it&lt;br&gt;
+&lt;br&gt;
+Our time is running out&lt;br&gt;
+And our time is running out&lt;br&gt;
+You can't push it underground&lt;br&gt;
+We can't stop it screaming out&lt;br&gt;
+&lt;br&gt;
+I wanted freedom&lt;br&gt;
+Bound and restricted&lt;br&gt;
+I tried to give you up&lt;br&gt;
+But I'm addicted&lt;br&gt;
+&lt;br&gt;
+Now that you know I'm trapped&lt;br&gt;
+Sense of elation&lt;br&gt;
+You'll never dream of breaking this fixation&lt;br&gt;
+&lt;br&gt;
+You will squeeze the life out of me&lt;br&gt;
+&lt;br&gt;
+Bury it&lt;br&gt;
+I won't let you bury it&lt;br&gt;
+I won't let you smother it&lt;br&gt;
+I won't let you murder it&lt;br&gt;
+&lt;br&gt;
+Our time is running out&lt;br&gt;
+And our time is running out&lt;br&gt;
+You can't push it underground&lt;br&gt;
+We can't stop it screaming out&lt;br&gt;
+&lt;br&gt;
+How did it come to this?&lt;br&gt;
+Ooh yeah yeah yeah yeah yeah&lt;br&gt;
+Ooh yeah yeah yeah yeah yeah&lt;br&gt;
+Ooh yeah yeah ooh yeah yeah&lt;br&gt;
+&lt;br&gt;
+Yeah, you will suck the life out of me&lt;br&gt;
+&lt;br&gt;
+Bury it&lt;br&gt;
+I won't let you bury it&lt;br&gt;
+I won't let you smother it&lt;br&gt;
+I won't let you murder it&lt;br&gt;
+&lt;br&gt;
+Our time is running out&lt;br&gt;
+And our time is running out&lt;br&gt;
+You can't push it underground&lt;br&gt;
+We can't stop it screaming out&lt;br&gt;
+&lt;br&gt;
+How did it come to this&lt;br&gt;
+Ooh yeah yeah yeah yeah yeah&lt;br&gt;
+Ooh yeah yeah yeah yeah yeah&lt;br&gt;
+Ooh yeah yeah ooh yeah yeah&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>It's bugging me&lt;br&gt;
+Grating me&lt;br&gt;
+And twisting me around&lt;br&gt;
+Yeah, I'm endlessly&lt;br&gt;
+Caving in&lt;br&gt;
+And turning inside out&lt;br&gt;
+&lt;br&gt;
+'Cause I want it now&lt;br&gt;
+I want it now&lt;br&gt;
+Give me your heart and your soul&lt;br&gt;
+And I'm breaking out&lt;br&gt;
+I'm breaking out&lt;br&gt;
+Last chance to lose control&lt;br&gt;
+&lt;br&gt;
+Yeah, it's holding me&lt;br&gt;
+Morphing me&lt;br&gt;
+And forcing me to strive&lt;br&gt;
+To be endlessly&lt;br&gt;
+Cool within&lt;br&gt;
+And dreaming I'm alive&lt;br&gt;
+&lt;br&gt;
+'Cause I want it now&lt;br&gt;
+I want it now&lt;br&gt;
+Give me your heart and your soul&lt;br&gt;
+I'm not breaking down&lt;br&gt;
+I'm breaking out&lt;br&gt;
+Last chance to lose control&lt;br&gt;
+&lt;br&gt;
+And I want you now&lt;br&gt;
+I want you now&lt;br&gt;
+I feel my heart implode&lt;br&gt;
+And I'm breaking out&lt;br&gt;
+Escaping now&lt;br&gt;
+Feeling my faith erode&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Can't get the stink off&lt;br&gt;
+He's been hanging 'round for days&lt;br&gt;
+Comes like a comet&lt;br&gt;
+Suckered you but not your friends&lt;br&gt;
+&lt;br&gt;
+One day he'll get to you&lt;br&gt;
+And teach you how to be a holy cow&lt;br&gt;
+&lt;br&gt;
+You do it to yourself, you do&lt;br&gt;
+And that's why it really hurts&lt;br&gt;
+Is that you do it to yourself, just you&lt;br&gt;
+You and no one else&lt;br&gt;
+You do it to yourself&lt;br&gt;
+You do it to yourself&lt;br&gt;
+&lt;br&gt;
+Don't get my sympathy&lt;br&gt;
+Hanging out the fifteenth floor&lt;br&gt;
+You've changed the locks three times&lt;br&gt;
+He still comes reeling through the door&lt;br&gt;
+&lt;br&gt;
+One day I'll get to you&lt;br&gt;
+And teach you how to get to purest hell&lt;br&gt;
+&lt;br&gt;
+You do it to yourself, you do&lt;br&gt;
+And that's why it really hurts&lt;br&gt;
+Is that you do it to yourself, just you&lt;br&gt;
+You and no one else&lt;br&gt;
+You do it to yourself&lt;br&gt;
+You do it to yourself&lt;br&gt;
+&lt;br&gt;
+You do it to yourself, you do&lt;br&gt;
+And that's why it really hurts&lt;br&gt;
+Is that you do it to yourself, just you&lt;br&gt;
+You and no one else&lt;br&gt;
+You do it to yourself&lt;br&gt;
+You do it to yourself&lt;br&gt;
+Self&lt;br&gt;
+&lt;br&gt;
+(You do it to yourself)&lt;br&gt;
+(You do it to yourself)&lt;br&gt;
+(Oh, you do it to yourself)&lt;br&gt;
+(Oh, you do it to yourself)&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Aprox 15-20 minutos</t>
+  </si>
+  <si>
+    <t>Sometimes I feel like&lt;br&gt;
+I don't have a partner&lt;br&gt;
+Sometimes I feel like&lt;br&gt;
+My only friend&lt;br&gt;
+Is the city I live in&lt;br&gt;
+The city of angels&lt;br&gt;
+Lonely as I am&lt;br&gt;
+Together we cry&lt;br&gt;
+&lt;br&gt;
+I drive on her streets, 'cause&lt;br&gt;
+She's my companion&lt;br&gt;
+I walk through her hills, 'cause&lt;br&gt;
+She knows who I am&lt;br&gt;
+She sees my good deeds and&lt;br&gt;
+She kisses me windy&lt;br&gt;
+And I never worry&lt;br&gt;
+Now that is a lie&lt;br&gt;
+&lt;br&gt;
+I don't ever wanna feel&lt;br&gt;
+Like I did that day&lt;br&gt;
+But take me to the place I love&lt;br&gt;
+Take me all the way&lt;br&gt;
+I don't ever wanna feel&lt;br&gt;
+Like I did that day&lt;br&gt;
+But take me to the place I love&lt;br&gt;
+Take me all the way&lt;br&gt;
+&lt;br&gt;
+It's hard to believe that&lt;br&gt;
+There's nobody out there&lt;br&gt;
+It's hard to believe&lt;br&gt;
+That I'm all alone&lt;br&gt;
+At least I have her love&lt;br&gt;
+The city, she loves me&lt;br&gt;
+Lonely as I am&lt;br&gt;
+Together we cry&lt;br&gt;
+&lt;br&gt;
+I don't ever wanna feel&lt;br&gt;
+Like I did that day&lt;br&gt;
+But take me to the place I love&lt;br&gt;
+Take me all the way&lt;br&gt;
+I don't ever wanna feel&lt;br&gt;
+Like I did that day&lt;br&gt;
+But take me to the place I love&lt;br&gt;
+Take me all the way&lt;br&gt;
+&lt;br&gt;
+(Under the bridge downtown)&lt;br&gt;
+Is where I drew some blood&lt;br&gt;
+(Under the bridge downtown)&lt;br&gt;
+I could not get enough&lt;br&gt;
+(Under the bridge downtown)&lt;br&gt;
+Forgot about my love&lt;br&gt;
+(Under the bridge downtown)&lt;br&gt;
+I gave my life away&lt;br&gt;
+&lt;br&gt;
+Yeah, yeah&lt;br&gt;
+Oh, no, no, no, no, yeah, yeah&lt;br&gt;
+Oh, no, I said oh, yeah, yeah&lt;br&gt;
+Here I stay&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>When you were here before&lt;br&gt;
+Couldn't look you in the eye&lt;br&gt;
+You're just like an angel&lt;br&gt;
+Your skin makes me cry&lt;br&gt;
+&lt;br&gt;
+You float like a feather&lt;br&gt;
+In a beautiful world&lt;br&gt;
+I wish I was special&lt;br&gt;
+You're so fucking special&lt;br&gt;
+&lt;br&gt;
+But I'm a creep&lt;br&gt;
+I'm a weirdo&lt;br&gt;
+What the hell am I doing here?&lt;br&gt;
+I don't belong here&lt;br&gt;
+&lt;br&gt;
+I don't care if it hurts&lt;br&gt;
+I wanna have control&lt;br&gt;
+I want a perfect body&lt;br&gt;
+I want a perfect soul&lt;br&gt;
+&lt;br&gt;
+I want you to notice&lt;br&gt;
+When I'm not around&lt;br&gt;
+You're so fucking special&lt;br&gt;
+I wish I was special&lt;br&gt;
+&lt;br&gt;
+But I'm a creep&lt;br&gt;
+I'm a weirdo&lt;br&gt;
+What the hell am I doing here?&lt;br&gt;
+I don't belong here&lt;br&gt;
+Oh, oh&lt;br&gt;
+&lt;br&gt;
+She's running out the door&lt;br&gt;
+She's running out&lt;br&gt;
+She run, run, run, run&lt;br&gt;
+Run&lt;br&gt;
+&lt;br&gt;
+Whatever makes you happy&lt;br&gt;
+Whatever you want&lt;br&gt;
+You're so fucking special&lt;br&gt;
+I wish I was special&lt;br&gt;
+&lt;br&gt;
+But I'm a creep&lt;br&gt;
+I'm a weirdo&lt;br&gt;
+What the hell am I doing here?&lt;br&gt;
+I don't belong here&lt;br&gt;
+I don't belong here&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Final primera Ronda, anunciar redes, presentacion jhon</t>
+  </si>
+  <si>
+    <t>Presentación, canción reciente</t>
+  </si>
+  <si>
+    <t>Now that I have my time&lt;br&gt;
+It's like I'm wasting it&lt;br&gt;
+With you...&lt;br&gt;
+In every game, every lie&lt;br&gt;
+I've fallen for&lt;br&gt;
+&lt;br&gt;
+Get away from me&lt;br&gt;
+Live here without you&lt;br&gt;
+Searching &lt;br&gt;
+The parts of missing love&lt;br&gt;
+&lt;br&gt;
+I showed you all my life&lt;br&gt;
+I told you all my dreams&lt;br&gt;
+What little I had, I gave it to you&lt;br&gt;
+&lt;br&gt;
+Get away from me&lt;br&gt;
+Live here without you&lt;br&gt;
+Searching &lt;br&gt;
+The parts of missing love&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>I walk alone without a halt,&lt;br&gt;
+Red lights flashing, somber waltz.&lt;br&gt;
+Stairways lead to your embrace,&lt;br&gt;
+Reason falters in this chase.&lt;br&gt;
+&lt;br&gt;
+The scorching streets devoid of rain,&lt;br&gt;
+Your love's flames, they dance insane.&lt;br&gt;
+The whispers echo in the background&lt;br&gt;
+Life's but one, with you through all.&lt;br&gt;
+&lt;br&gt;
+Seems like love, feels like spite,&lt;br&gt;
+Patch me up behind the light.&lt;br&gt;
+As you leave, and return&lt;br&gt;
+Life and death, they dance in vain.&lt;br&gt;
+&lt;br&gt;
+Onto the main street, I tread,&lt;br&gt;
+Blood on the dry ground, it's spread.&lt;br&gt;
+Yesterday brought the unforeseen,&lt;br&gt;
+Yesterday's nothing, if not unseen.&lt;br&gt;
+&lt;br&gt;
+In shadows deep, I roam the night,&lt;br&gt;
+Lost in thoughts, obscured from sight.&lt;br&gt;
+Echoes of your name, they call,&lt;br&gt;
+In this labyrinth, I stumble, fall.&lt;br&gt;
+&lt;br&gt;
+Seems like love, feels like spite,&lt;br&gt;
+Patch me up behind the light.&lt;br&gt;
+As you leave, and return&lt;br&gt;
+Life and death, they dance in vain.&lt;br&gt;
+&lt;br&gt;
+[outro]&lt;br&gt;
+&lt;br&gt;
+While you're here, &lt;br&gt;
+everything seems like we have &lt;br&gt;
+the last chance&lt;br&gt;
+to be the (only) ones&lt;br&gt;
+&lt;br&gt;
+you and me&lt;br&gt;
+we should be one&lt;br&gt;
+Please don't go&lt;br&gt;
+Please don't go&lt;br&gt;
+Don’t leave me here&lt;br&gt;
+ready to start (again)&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Can't stop, addicted to the shindig&lt;br&gt;
+Chop Top, he says I'm gonna win big&lt;br&gt;
+Choose not a life of imitation&lt;br&gt;
+Distant cousin to the reservation&lt;br&gt;
+Defunkt, the pistol that you pay for&lt;br&gt;
+This punk, the feeling that you stay for&lt;br&gt;
+In time, I want to be your best friend&lt;br&gt;
+East side love is living on the West End&lt;br&gt;
+&lt;br&gt;
+Knocked out, but, boy, you better come to (oh)&lt;br&gt;
+Don't die, you know, the truth as some do (oh)&lt;br&gt;
+Go write your message on the pavement (oh)&lt;br&gt;
+Burn so bright, I wonder what the wave meant&lt;br&gt;
+White heat is screaming in the jungle (oh)&lt;br&gt;
+Complete the motion if you stumble (oh)&lt;br&gt;
+Go ask the dust for any answers (oh)&lt;br&gt;
+Come back strong with fifty belly dancers&lt;br&gt;
+&lt;br&gt;
+The world I love, the tears I drop&lt;br&gt;
+To be part of the wave, can't stop&lt;br&gt;
+Ever wonder if it's all for you?&lt;br&gt;
+The world I love, the trains I hop&lt;br&gt;
+To be part of the wave, can't stop&lt;br&gt;
+Come and tell me when it's time to&lt;br&gt;
+&lt;br&gt;
+Sweetheart is bleeding in the snow cone&lt;br&gt;
+So smart, she's leading me to ozone&lt;br&gt;
+Music, the great communicator&lt;br&gt;
+Use two sticks to make it in the nature&lt;br&gt;
+I'll get you into penetration&lt;br&gt;
+The gender of a generation&lt;br&gt;
+The birth of every other nation&lt;br&gt;
+Worth your weight, the gold of meditation&lt;br&gt;
+&lt;br&gt;
+This chapter's gonna be a close one (oh)&lt;br&gt;
+Smoke rings, I know you're gonna blow one (oh)&lt;br&gt;
+All on a spaceship, persevering (oh)&lt;br&gt;
+Use my hands for everything but steering&lt;br&gt;
+Can't stop the spirits when they need you (oh)&lt;br&gt;
+Mop tops are happy when they feed you (oh)&lt;br&gt;
+J. Butterfly is in the treetop (oh)&lt;br&gt;
+Birds that blow the meaning into bebop&lt;br&gt;
+&lt;br&gt;
+The world I love, the tears I drop&lt;br&gt;
+To be part of the wave, can't stop&lt;br&gt;
+Ever wonder if it's all for you?&lt;br&gt;
+The world I love, the trains I hop&lt;br&gt;
+To be part of the wave, can't stop&lt;br&gt;
+Come and tell me when it's time to&lt;br&gt;
+&lt;br&gt;
+Wait a minute, I'm passing out, win or lose&lt;br&gt;
+Just like you&lt;br&gt;
+Far more shocking than anything I ever knew&lt;br&gt;
+How 'bout you?&lt;br&gt;
+Ten more reasons why I need somebody new&lt;br&gt;
+Just like you&lt;br&gt;
+Far more shocking than anything I ever knew&lt;br&gt;
+Right on cue&lt;br&gt;
+&lt;br&gt;
+Can't stop, addicted to the shindig&lt;br&gt;
+Chop Top, he says I'm gonna win big&lt;br&gt;
+Choose not a life of imitation&lt;br&gt;
+Distant cousin to the reservation&lt;br&gt;
+Defunkt, the pistol that you pay for (oh)&lt;br&gt;
+This punk, the feeling that you stay for (oh)&lt;br&gt;
+In time, I want to be your best friend (oh)&lt;br&gt;
+East side love is living on the West End&lt;br&gt;
+&lt;br&gt;
+Knocked out, but boy, you better come to (oh)&lt;br&gt;
+Don't die, you know, the truth is some do (oh)&lt;br&gt;
+Go write your message on the pavement (oh)&lt;br&gt;
+Burn so bright, I wonder what the wave meant&lt;br&gt;
+Kick-start the golden generator&lt;br&gt;
+Sweet talk, but don't intimidate her&lt;br&gt;
+Can't stop the gods from engineering&lt;br&gt;
+Feel no need for any interfering&lt;br&gt;
+&lt;br&gt;
+Your image in the dictionary&lt;br&gt;
+This life is more than ordinary&lt;br&gt;
+Can I get two, maybe even three of these?&lt;br&gt;
+Coming from the space to teach you of the Pleiades&lt;br&gt;
+&lt;br&gt;
+Can't stop the spirits when they need you&lt;br&gt;
+This life is more than just a read-through&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Too alarming now to talk about&lt;br&gt;
+Take your pictures down and shake it out&lt;br&gt;
+Truth or consequence, say it aloud&lt;br&gt;
+Use that evidence, race it around&lt;br&gt;
+&lt;br&gt;
+There goes my hero&lt;br&gt;
+Watch him as he goes&lt;br&gt;
+There goes my hero&lt;br&gt;
+He's ordinary&lt;br&gt;
+&lt;br&gt;
+Don't the best of them bleed it out?&lt;br&gt;
+While the rest of them peter out&lt;br&gt;
+Truth or consequence, say it aloud&lt;br&gt;
+Use that evidence, race it around&lt;br&gt;
+&lt;br&gt;
+There goes my hero&lt;br&gt;
+Watch him as he goes&lt;br&gt;
+There goes my hero&lt;br&gt;
+He's ordinary&lt;br&gt;
+&lt;br&gt;
+Kudos my hero, leaving all the mess&lt;br&gt;
+You know my hero, the one that's on&lt;br&gt;
+&lt;br&gt;
+There goes my hero&lt;br&gt;
+Watch him as he goes&lt;br&gt;
+There goes my hero&lt;br&gt;
+He's ordinary&lt;br&gt;
+&lt;br&gt;
+There goes my hero&lt;br&gt;
+Watch him as he goes&lt;br&gt;
+There goes my hero&lt;br&gt;
+He's ordinary&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>I've exposed your lies, baby&lt;br&gt;
+The underneath is no big surprise&lt;br&gt;
+Now it's time for changing&lt;br&gt;
+And cleansing everything&lt;br&gt;
+To forget your love&lt;br&gt;
+&lt;br&gt;
+My plug in baby&lt;br&gt;
+Crucifies my enemies&lt;br&gt;
+When I'm tired of giving&lt;br&gt;
+My plug in baby&lt;br&gt;
+In unbroken virgin realities&lt;br&gt;
+Is tired of living&lt;br&gt;
+&lt;br&gt;
+Don't confuse&lt;br&gt;
+Baby you're gonna lose&lt;br&gt;
+Your own game&lt;br&gt;
+Change me&lt;br&gt;
+Replace the envying&lt;br&gt;
+To forget your love&lt;br&gt;
+&lt;br&gt;
+My plug in baby&lt;br&gt;
+Crucifies my enemies&lt;br&gt;
+When I'm tired of giving&lt;br&gt;
+My plug in baby&lt;br&gt;
+In unbroken virgin realities&lt;br&gt;
+I'm tired of living&lt;br&gt;
+&lt;br&gt;
+And I've seen your loving&lt;br&gt;
+But mine is gone&lt;br&gt;
+And I've been in trouble&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Preparar para smells</t>
+  </si>
+  <si>
+    <t>Load up on guns, bring your friends&lt;br&gt;
+It's fun to lose and to pretend&lt;br&gt;
+She's over-bored and self-assured&lt;br&gt;
+Oh, no, I know a dirty word&lt;br&gt;
+&lt;br&gt;
+Hello, hello, hello, how low&lt;br&gt;
+Hello, hello, hello, how low&lt;br&gt;
+Hello, hello, hello, how low&lt;br&gt;
+Hello, hello, hello&lt;br&gt;
+&lt;br&gt;
+With the lights out&lt;br&gt;
+It's less dangerous&lt;br&gt;
+Here we are now, entertain us&lt;br&gt;
+I feel stupid and contagious&lt;br&gt;
+Here we are now, entertain us&lt;br&gt;
+A mulatto, an albino&lt;br&gt;
+A mosquito, my libido&lt;br&gt;
+Yeah, hey, yay&lt;br&gt;
+&lt;br&gt;
+I'm worse at what I do best&lt;br&gt;
+And for this gift I feel blessed&lt;br&gt;
+Our little group has always been&lt;br&gt;
+And always will until the end&lt;br&gt;
+&lt;br&gt;
+Hello, hello, hello, how low&lt;br&gt;
+Hello, hello, hello, how low&lt;br&gt;
+Hello, hello, hello, how low&lt;br&gt;
+Hello, hello, hello&lt;br&gt;
+&lt;br&gt;
+With the lights out&lt;br&gt;
+It's less dangerous&lt;br&gt;
+Here we are now, entertain us&lt;br&gt;
+I feel stupid and contagious&lt;br&gt;
+Here we are now, entertain us&lt;br&gt;
+A mulatto, an albino&lt;br&gt;
+A mosquito, my libido&lt;br&gt;
+Yeah, hey, yay&lt;br&gt;
+&lt;br&gt;
+And I forget just why I taste&lt;br&gt;
+Oh, yeah, I guess it makes me smile&lt;br&gt;
+I found it hard, it's hard to find&lt;br&gt;
+Well, whatever, nevermind&lt;br&gt;
+&lt;br&gt;
+Hello, hello, hello, how low&lt;br&gt;
+Hello, hello, hello, how low&lt;br&gt;
+Hello, hello, hello, how low&lt;br&gt;
+Hello, hello, hello&lt;br&gt;
+&lt;br&gt;
+With the lights out&lt;br&gt;
+It's less dangerous&lt;br&gt;
+Here we are now, entertain us&lt;br&gt;
+I feel stupid and contagious&lt;br&gt;
+Here we are now, entertain us&lt;br&gt;
+A mulatto, an albino&lt;br&gt;
+A mosquito, my libido&lt;br&gt;
+&lt;br&gt;
+A denial, a denial, a denial&lt;br&gt;
+A denial, a denial, a denial&lt;br&gt;
+A denial, a denial, a denial&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Estamos llegando al final del concierto</t>
+  </si>
+  <si>
+    <t>Standing in line to see the show tonight&lt;br&gt;
+And there's a light on, heavy glow&lt;br&gt;
+By the way, I tried to say&lt;br&gt;
+I'd be there waiting for&lt;br&gt;
+Dani, the girl, is singing songs to me&lt;br&gt;
+Beneath the marquee, overload&lt;br&gt;
+&lt;br&gt;
+Steak knife, card shark&lt;br&gt;
+Con job, boot cut&lt;br&gt;
+Skin that flick, she's such a little DJ&lt;br&gt;
+Get there quick by street, but not the freeway&lt;br&gt;
+Turn that trick to make a little leeway&lt;br&gt;
+Beat that nic, but not the way that we play&lt;br&gt;
+Dogtown, blood bath&lt;br&gt;
+Rib cage, soft tail&lt;br&gt;
+&lt;br&gt;
+Standing in line to see the show tonight&lt;br&gt;
+And there's a light on, heavy glow&lt;br&gt;
+By the way, I tried to say&lt;br&gt;
+I'd be there waiting for&lt;br&gt;
+&lt;br&gt;
+Black Jack, dope dick&lt;br&gt;
+Pawn shop, quick pick&lt;br&gt;
+Kiss that dyke, I know you want to hold one&lt;br&gt;
+Not on strike, but I'm about to bowl one&lt;br&gt;
+Bite that mic, I know you never stole one&lt;br&gt;
+Girls that like a story, so I told one&lt;br&gt;
+Song bird, main line&lt;br&gt;
+Cash back, hard top&lt;br&gt;
+&lt;br&gt;
+Standing in line to see the show tonight&lt;br&gt;
+And there's a light on, heavy glow&lt;br&gt;
+By the way, I tried to say&lt;br&gt;
+I'd be there waiting for&lt;br&gt;
+Dani, the girl, is singing songs to me&lt;br&gt;
+Beneath the marquee, oversold&lt;br&gt;
+By the way, I tried to say&lt;br&gt;
+I'd be there waiting for&lt;br&gt;
+&lt;br&gt;
+Oh, ah, guess you never meant it&lt;br&gt;
+Oh, ah, guess you never meant it&lt;br&gt;
+Oh, ah, guess you never meant it&lt;br&gt;
+Oh, ah, guess you never meant it&lt;br&gt;
+Oh, ah, guess you never meant it&lt;br&gt;
+Oh, ah, guess you never meant it&lt;br&gt;
+Oh, ah, guess you never meant it&lt;br&gt;
+Oh, ah&lt;br&gt;
+&lt;br&gt;
+Standing in line to see the show tonight&lt;br&gt;
+And there's a light on, heavy glow&lt;br&gt;
+By the way, I tried to say&lt;br&gt;
+I'd be there waiting for&lt;br&gt;
+Dani, the girl, is singing songs to me&lt;br&gt;
+Beneath the marquee, oversold&lt;br&gt;
+By the way, I tried to say&lt;br&gt;
+I know you from before&lt;br&gt;
+&lt;br&gt;
+Standing in line to see the show tonight&lt;br&gt;
+And there's a light on, heavy glow&lt;br&gt;
+By the way, I tried to say&lt;br&gt;
+I'd be there waiting for&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Say your prayers, little one, don't forget, my son&lt;br&gt;
+To include everyone&lt;br&gt;
+I tuck you in, warm within, keep you free from sin&lt;br&gt;
+'Til the Sandman, he comes, ah&lt;br&gt;
+&lt;br&gt;
+Sleep with one eye open&lt;br&gt;
+Gripping your pillow tight&lt;br&gt;
+&lt;br&gt;
+Exit light&lt;br&gt;
+Enter night&lt;br&gt;
+Take my hand&lt;br&gt;
+We're off to Never-Neverland&lt;br&gt;
+&lt;br&gt;
+Something's wrong, shut the light, heavy thoughts tonight&lt;br&gt;
+And they aren't of Snow White&lt;br&gt;
+Dreams of war, dreams of liars, dreams of dragons' fire&lt;br&gt;
+And of things that will bite, yeah&lt;br&gt;
+&lt;br&gt;
+Sleep with one eye open&lt;br&gt;
+Gripping your pillow tight&lt;br&gt;
+&lt;br&gt;
+Exit light&lt;br&gt;
+Enter night&lt;br&gt;
+Take my hand&lt;br&gt;
+We're off to Never-Neverland&lt;br&gt;
+Yeah&lt;br&gt;
+&lt;br&gt;
+Now, I lay me down to sleep (now, I lay me down to sleep)&lt;br&gt;
+Pray the Lord my soul to keep (pray the Lord my soul to keep)&lt;br&gt;
+If I die before I wake (if I die before I wake)&lt;br&gt;
+Pray the Lord my soul to take (pray the Lord my soul to take)&lt;br&gt;
+&lt;br&gt;
+Hush, little baby, don't say a word&lt;br&gt;
+And never mind that noise you heard&lt;br&gt;
+It's just the beasts under your bed&lt;br&gt;
+In your closet, in your head&lt;br&gt;
+&lt;br&gt;
+Exit light&lt;br&gt;
+Enter night&lt;br&gt;
+Grain of sand&lt;br&gt;
+&lt;br&gt;
+Exit light&lt;br&gt;
+Enter night&lt;br&gt;
+Take my hand&lt;br&gt;
+We're off to Never-Neverland&lt;br&gt;
+Yeah&lt;br&gt;
+&lt;br&gt;
+Oh&lt;br&gt;
+Yeah, yeah&lt;br&gt;
+Whoa, oh&lt;br&gt;
+&lt;br&gt;
+(We're off to Never-Neverland) take my hand&lt;br&gt;
+(We're off to Never-Neverland) take my hand&lt;br&gt;
+&lt;br&gt;
+(We're off to Never-Neverland)&lt;br&gt;
+(We're off to Never-Neverland)&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Sell the kids for food&lt;br&gt;
+Weather changes moods&lt;br&gt;
+Spring is here again&lt;br&gt;
+Reproductive glands&lt;br&gt;
+&lt;br&gt;
+He's the one&lt;br&gt;
+Who likes all our pretty songs&lt;br&gt;
+And he likes to sing along&lt;br&gt;
+And he likes to shoot his gun&lt;br&gt;
+But he don't know what it means&lt;br&gt;
+Don't know what it means&lt;br&gt;
+And I say, yeah&lt;br&gt;
+&lt;br&gt;
+He's the one&lt;br&gt;
+Who likes all our pretty songs&lt;br&gt;
+And he likes to sing along&lt;br&gt;
+And he likes to shoot his gun&lt;br&gt;
+But he don't know what it means&lt;br&gt;
+Don't know what it means&lt;br&gt;
+And I say, yeah&lt;br&gt;
+&lt;br&gt;
+We can have some more&lt;br&gt;
+Nature is a whore&lt;br&gt;
+Bruises on the fruit&lt;br&gt;
+Tender age in bloom&lt;br&gt;
+&lt;br&gt;
+He's the one&lt;br&gt;
+Who likes all our pretty songs&lt;br&gt;
+And he likes to sing along&lt;br&gt;
+And he likes to shoot his gun&lt;br&gt;
+But he don't know what it means&lt;br&gt;
+Don't know what it means&lt;br&gt;
+And I say&lt;br&gt;
+&lt;br&gt;
+He's the one&lt;br&gt;
+Who likes all our pretty songs&lt;br&gt;
+And he likes to sing along&lt;br&gt;
+And he likes to shoot his gun&lt;br&gt;
+But he don't know what it means&lt;br&gt;
+Don't know what it means&lt;br&gt;
+And I say, yeah&lt;br&gt;
+&lt;br&gt;
+He's the one&lt;br&gt;
+Who likes all our pretty songs&lt;br&gt;
+And he likes to sing along&lt;br&gt;
+And he likes to shoot his gun&lt;br&gt;
+But he don't know what it means&lt;br&gt;
+Don't know what it means&lt;br&gt;
+And I say&lt;br&gt;
+&lt;br&gt;
+He's the one&lt;br&gt;
+Who likes all our pretty songs&lt;br&gt;
+And he likes to sing along&lt;br&gt;
+And he likes to shoot his gun&lt;br&gt;
+But he don't know what it means&lt;br&gt;
+Don't know what it means&lt;br&gt;
+Don't know what it means&lt;br&gt;
+Don't know what it means&lt;br&gt;
+And I say, yeah&lt;br&gt;</t>
   </si>
 </sst>
 </file>
@@ -258,12 +1407,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -600,13 +1752,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57EB17D2-6DC1-4CE4-9CDC-D03F934B4915}">
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="45.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -629,7 +1782,7 @@
         <v>45</v>
       </c>
       <c r="G1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
@@ -652,11 +1805,11 @@
         <v>46</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -675,8 +1828,11 @@
       <c r="F3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G3" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -694,6 +1850,9 @@
       </c>
       <c r="F4" t="s">
         <v>46</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -715,8 +1874,11 @@
       <c r="F5" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -735,8 +1897,11 @@
       <c r="F6" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G6" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -755,8 +1920,11 @@
       <c r="F7" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G7" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -775,8 +1943,11 @@
       <c r="F8" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G8" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -795,8 +1966,11 @@
       <c r="F9" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G9" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -815,8 +1989,11 @@
       <c r="F10" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G10" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -835,8 +2012,11 @@
       <c r="F11" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G11" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>44</v>
       </c>
@@ -852,8 +2032,11 @@
       <c r="F12" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G12" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -872,8 +2055,11 @@
       <c r="F13" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G13" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -892,8 +2078,11 @@
       <c r="F14" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G14" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -911,6 +2100,9 @@
       </c>
       <c r="F15" t="s">
         <v>46</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -932,8 +2124,11 @@
       <c r="F16" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -952,8 +2147,11 @@
       <c r="F17" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -972,8 +2170,11 @@
       <c r="F18" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>43</v>
       </c>
@@ -992,8 +2193,11 @@
       <c r="F19" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="285" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -1012,8 +2216,11 @@
       <c r="F20" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -1032,8 +2239,11 @@
       <c r="F21" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -1052,8 +2262,11 @@
       <c r="F22" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -1072,8 +2285,11 @@
       <c r="F23" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G23" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -1092,8 +2308,11 @@
       <c r="F24" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G24" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>40</v>
       </c>
@@ -1112,8 +2331,11 @@
       <c r="F25" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G25" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>31</v>
       </c>
@@ -1132,8 +2354,11 @@
       <c r="F26" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G26" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>44</v>
       </c>
@@ -1152,8 +2377,11 @@
       <c r="F27" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G27" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -1172,8 +2400,11 @@
       <c r="F28" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G28" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>33</v>
       </c>
@@ -1192,8 +2423,11 @@
       <c r="F29" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G29" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>34</v>
       </c>
@@ -1211,6 +2445,9 @@
       </c>
       <c r="F30" t="s">
         <v>48</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
